--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanBG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="27" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -709,22 +709,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +731,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,43 +1087,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1168,58 +1168,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1244,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1333,7 +1333,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1509,7 +1509,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2827,6 +2827,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2838,13 +2845,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2855,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2888,39 +2888,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="61" t="s">
         <v>68</v>
       </c>
@@ -2969,58 +2969,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3045,23 +3045,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3146,7 +3146,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3322,7 +3322,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4640,11 +4640,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4657,6 +4652,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4667,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4700,43 +4700,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="64"/>
@@ -4781,58 +4781,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4857,23 +4857,23 @@
       <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4986,7 +4986,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5162,7 +5162,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5191,7 +5191,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6480,6 +6480,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6491,13 +6498,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6508,8 +6508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6541,43 +6541,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6622,58 +6622,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -6698,23 +6698,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6793,7 +6793,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6851,7 +6851,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6969,7 +6969,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8287,13 +8287,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8305,6 +8298,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8315,8 +8315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8348,43 +8348,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8429,58 +8429,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8505,41 +8505,57 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="42">
+        <v>44281</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44282</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="44">
+        <v>866762025784065</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
+      <c r="I6" s="60" t="s">
+        <v>76</v>
+      </c>
       <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="47"/>
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
@@ -8547,7 +8563,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8559,26 +8575,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42">
+        <v>44281</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44282</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183035939177</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="L7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8588,26 +8632,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="42">
+        <v>44281</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44282</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="44">
+        <v>864811036990419</v>
+      </c>
       <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="59" t="s">
+        <v>76</v>
+      </c>
       <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="4"/>
+      <c r="K8" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8617,26 +8689,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
+      <c r="B9" s="42">
+        <v>44281</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44282</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="44">
+        <v>866192037770599</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="60" t="s">
+        <v>76</v>
+      </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="4"/>
+      <c r="K9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8646,26 +8746,48 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="42">
+        <v>44281</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44282</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="44">
+        <v>862631039279426</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="43"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="48"/>
       <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="M10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="47"/>
+      <c r="O10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8694,7 +8816,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8723,7 +8845,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8754,7 +8876,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8783,7 +8905,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8812,7 +8934,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8841,7 +8963,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8960,7 +9082,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -8992,7 +9114,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -9024,7 +9146,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -9301,7 +9423,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -9397,7 +9519,7 @@
       </c>
       <c r="V34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="16"/>
     </row>
@@ -9429,7 +9551,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -9493,7 +9615,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -9611,7 +9733,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -9846,7 +9968,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>58</v>
@@ -10072,6 +10194,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10083,13 +10212,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="27" r:id="rId1"/>
@@ -709,7 +709,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,21 +746,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,43 +1087,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1168,58 +1168,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1244,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1333,7 +1333,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1509,7 +1509,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2827,13 +2827,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2845,6 +2838,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2888,39 +2888,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="61" t="s">
         <v>68</v>
       </c>
@@ -2969,58 +2969,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3045,23 +3045,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3146,7 +3146,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3322,7 +3322,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4640,6 +4640,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4652,11 +4657,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4700,43 +4700,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="64"/>
@@ -4781,58 +4781,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4857,23 +4857,23 @@
       <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4986,7 +4986,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5162,7 +5162,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5191,7 +5191,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6480,13 +6480,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6498,6 +6491,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6541,43 +6541,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6622,58 +6622,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -6698,23 +6698,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6793,7 +6793,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6851,7 +6851,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6969,7 +6969,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8287,6 +8287,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8298,13 +8305,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8315,8 +8315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8348,43 +8348,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8429,58 +8429,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8505,23 +8505,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8563,7 +8563,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>85</v>
       </c>
       <c r="T8" s="49"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>85</v>
       </c>
       <c r="T9" s="49"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8876,7 +8876,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8905,7 +8905,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10194,13 +10194,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10212,6 +10205,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanBG.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -709,22 +709,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +731,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,43 +1087,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1168,58 +1168,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1244,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,12 +1297,18 @@
       <c r="M6" s="1"/>
       <c r="N6" s="47"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="P6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1333,7 +1339,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1368,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1397,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1455,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1484,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1509,7 +1515,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1538,7 +1544,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1567,7 +1573,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1602,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1715,7 +1721,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -2216,7 +2222,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -2248,7 +2254,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2827,6 +2833,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2838,13 +2851,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2888,39 +2894,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="61" t="s">
         <v>68</v>
       </c>
@@ -2969,58 +2975,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3045,23 +3051,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3115,7 +3121,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3146,7 +3152,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3175,7 +3181,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3204,7 +3210,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3233,7 +3239,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3262,7 +3268,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3291,7 +3297,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3322,7 +3328,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3351,7 +3357,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3386,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3409,7 +3415,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4640,11 +4646,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4657,6 +4658,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4700,43 +4706,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="64"/>
@@ -4781,58 +4787,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4857,23 +4863,23 @@
       <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4927,7 +4933,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4986,7 +4992,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5015,7 +5021,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5044,7 +5050,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5073,7 +5079,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5102,7 +5108,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5131,7 +5137,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5162,7 +5168,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5191,7 +5197,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5220,7 +5226,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5249,7 +5255,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6480,6 +6486,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6491,13 +6504,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6541,43 +6547,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6622,58 +6628,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -6698,23 +6704,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6762,7 +6768,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6793,7 +6799,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6822,7 +6828,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6851,7 +6857,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6880,7 +6886,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6909,7 +6915,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6938,7 +6944,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6969,7 +6975,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6998,7 +7004,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7027,7 +7033,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7056,7 +7062,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8287,13 +8293,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8305,6 +8304,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8348,43 +8354,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8429,58 +8435,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8505,23 +8511,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8563,7 +8569,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8622,7 +8628,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>85</v>
       </c>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>85</v>
       </c>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8787,7 +8793,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8816,7 +8822,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8845,7 +8851,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8876,7 +8882,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8905,7 +8911,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8934,7 +8940,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8963,7 +8969,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10194,6 +10200,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10205,13 +10218,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
